--- a/teaching/traditional_assets/database/data/netherlands/netherlands_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_brokerage_investment_banking.xlsx
@@ -590,44 +590,50 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.209</v>
+      </c>
+      <c r="E2">
+        <v>0.32</v>
+      </c>
       <c r="F2">
-        <v>-0.062</v>
+        <v>0.237</v>
       </c>
       <c r="G2">
-        <v>0.828125</v>
+        <v>0.1729173867957138</v>
       </c>
       <c r="H2">
-        <v>0.726438492063492</v>
+        <v>0.1271171793985482</v>
       </c>
       <c r="I2">
-        <v>0.396175237457052</v>
+        <v>0.567749740753543</v>
       </c>
       <c r="J2">
-        <v>0.3244824382101168</v>
+        <v>0.4655000457073643</v>
       </c>
       <c r="K2">
-        <v>78.2</v>
+        <v>476.2</v>
       </c>
       <c r="L2">
-        <v>0.1939484126984127</v>
+        <v>0.4115105426892499</v>
       </c>
       <c r="M2">
-        <v>68.208</v>
+        <v>238.698</v>
       </c>
       <c r="N2">
-        <v>0.06078060951702013</v>
+        <v>0.1612824324324324</v>
       </c>
       <c r="O2">
-        <v>0.8722250639386189</v>
+        <v>0.5012557748845023</v>
       </c>
       <c r="P2">
-        <v>68.208</v>
+        <v>238.698</v>
       </c>
       <c r="Q2">
-        <v>0.06078060951702013</v>
+        <v>0.1612824324324324</v>
       </c>
       <c r="R2">
-        <v>0.8722250639386189</v>
+        <v>0.5012557748845023</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,67 +648,67 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.1828384381575871</v>
+        <v>1.332773579624965</v>
       </c>
       <c r="X2">
-        <v>0.04257546754347236</v>
+        <v>0.02919174153823396</v>
       </c>
       <c r="Y2">
-        <v>0.1402629706141147</v>
+        <v>1.303581838086731</v>
       </c>
       <c r="Z2">
-        <v>0.8927054778008148</v>
+        <v>3.065430463576159</v>
       </c>
       <c r="AA2">
-        <v>0.2896672500403356</v>
+        <v>1.426958020907449</v>
       </c>
       <c r="AB2">
-        <v>0.04204254253337772</v>
+        <v>0.02909967244874467</v>
       </c>
       <c r="AC2">
-        <v>0.2476247075069579</v>
+        <v>1.397858348458704</v>
       </c>
       <c r="AD2">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="AE2">
-        <v>23.96072128658333</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>44.16072128658332</v>
+        <v>20.6</v>
       </c>
       <c r="AG2">
-        <v>44.16072128658332</v>
+        <v>20.6</v>
       </c>
       <c r="AH2">
-        <v>0.03786197569982529</v>
+        <v>0.01372784219645475</v>
       </c>
       <c r="AI2">
-        <v>0.1100001044811035</v>
+        <v>0.02604298356510746</v>
       </c>
       <c r="AJ2">
-        <v>0.03786197569982529</v>
+        <v>0.01372784219645475</v>
       </c>
       <c r="AK2">
-        <v>0.1100001044811035</v>
+        <v>0.02604298356510746</v>
       </c>
       <c r="AL2">
-        <v>61.4</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="AM2">
-        <v>61.4</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="AN2">
-        <v>0.115080043297442</v>
+        <v>0.03084294055996407</v>
       </c>
       <c r="AO2">
-        <v>2.553745928338762</v>
+        <v>9.675994108983799</v>
       </c>
       <c r="AP2">
-        <v>0.2515850355300138</v>
+        <v>0.03084294055996407</v>
       </c>
       <c r="AQ2">
-        <v>2.553745928338762</v>
+        <v>9.675994108983799</v>
       </c>
     </row>
     <row r="3">
@@ -721,44 +727,50 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.209</v>
+      </c>
+      <c r="E3">
+        <v>0.32</v>
+      </c>
       <c r="F3">
-        <v>-0.062</v>
+        <v>0.237</v>
       </c>
       <c r="G3">
-        <v>0.828125</v>
+        <v>0.1729173867957138</v>
       </c>
       <c r="H3">
-        <v>0.726438492063492</v>
+        <v>0.1271171793985482</v>
       </c>
       <c r="I3">
-        <v>0.396175237457052</v>
+        <v>0.567749740753543</v>
       </c>
       <c r="J3">
-        <v>0.3244824382101168</v>
+        <v>0.4655000457073643</v>
       </c>
       <c r="K3">
-        <v>78.2</v>
+        <v>476.2</v>
       </c>
       <c r="L3">
-        <v>0.1939484126984127</v>
+        <v>0.4115105426892499</v>
       </c>
       <c r="M3">
-        <v>68.208</v>
+        <v>238.698</v>
       </c>
       <c r="N3">
-        <v>0.06078060951702013</v>
+        <v>0.1612824324324324</v>
       </c>
       <c r="O3">
-        <v>0.8722250639386189</v>
+        <v>0.5012557748845023</v>
       </c>
       <c r="P3">
-        <v>68.208</v>
+        <v>238.698</v>
       </c>
       <c r="Q3">
-        <v>0.06078060951702013</v>
+        <v>0.1612824324324324</v>
       </c>
       <c r="R3">
-        <v>0.8722250639386189</v>
+        <v>0.5012557748845023</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +785,67 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.1828384381575871</v>
+        <v>1.332773579624965</v>
       </c>
       <c r="X3">
-        <v>0.04257546754347236</v>
+        <v>0.02919174153823396</v>
       </c>
       <c r="Y3">
-        <v>0.1402629706141147</v>
+        <v>1.303581838086731</v>
       </c>
       <c r="Z3">
-        <v>0.8927054778008148</v>
+        <v>3.065430463576159</v>
       </c>
       <c r="AA3">
-        <v>0.2896672500403356</v>
+        <v>1.426958020907449</v>
       </c>
       <c r="AB3">
-        <v>0.04204254253337772</v>
+        <v>0.02909967244874467</v>
       </c>
       <c r="AC3">
-        <v>0.2476247075069579</v>
+        <v>1.397858348458704</v>
       </c>
       <c r="AD3">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="AE3">
-        <v>23.96072128658333</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>44.16072128658332</v>
+        <v>20.6</v>
       </c>
       <c r="AG3">
-        <v>44.16072128658332</v>
+        <v>20.6</v>
       </c>
       <c r="AH3">
-        <v>0.03786197569982529</v>
+        <v>0.01372784219645475</v>
       </c>
       <c r="AI3">
-        <v>0.1100001044811035</v>
+        <v>0.02604298356510746</v>
       </c>
       <c r="AJ3">
-        <v>0.03786197569982529</v>
+        <v>0.01372784219645475</v>
       </c>
       <c r="AK3">
-        <v>0.1100001044811035</v>
+        <v>0.02604298356510746</v>
       </c>
       <c r="AL3">
-        <v>61.4</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="AM3">
-        <v>61.4</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="AN3">
-        <v>0.115080043297442</v>
+        <v>0.03084294055996407</v>
       </c>
       <c r="AO3">
-        <v>2.553745928338762</v>
+        <v>9.675994108983799</v>
       </c>
       <c r="AP3">
-        <v>0.2515850355300138</v>
+        <v>0.03084294055996407</v>
       </c>
       <c r="AQ3">
-        <v>2.553745928338762</v>
+        <v>9.675994108983799</v>
       </c>
     </row>
   </sheetData>
